--- a/Establecimientos/Establecimientos_unidos_codigo_DEIS.xlsx
+++ b/Establecimientos/Establecimientos_unidos_codigo_DEIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://licenciasminsal-my.sharepoint.com/personal/santiago_farias_redsalud_gob_cl/Documents/Escritorio/Salud Pública/MS_2024/Establecimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{440CB85C-A46B-4C9C-AADE-B4A3E49EAF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{440CB85C-A46B-4C9C-AADE-B4A3E49EAF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C637D6A-4688-43FD-A8C0-B0391B5BBACC}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15735" windowHeight="15585" xr2:uid="{4B2186C0-9B15-4492-B626-9132DE914936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B2186C0-9B15-4492-B626-9132DE914936}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ESTAB!$A$1:$C$4712</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -16297,8 +16298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F366B722-44E6-40CB-B69C-7575795C8F4C}">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19367,6 +19368,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J171" xr:uid="{F366B722-44E6-40CB-B69C-7575795C8F4C}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19377,7 +19379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660C3493-F24A-49FD-9DEA-F78B15BD5FB5}">
   <dimension ref="A1:C4715"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
